--- a/excel/fon_si_betweenness_centrality.xlsx
+++ b/excel/fon_si_betweenness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -485,16 +485,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
